--- a/results/primer/VanillaSIR_Scenario0_Primer_200_uniform.xlsx
+++ b/results/primer/VanillaSIR_Scenario0_Primer_200_uniform.xlsx
@@ -535,19 +535,19 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2">
-        <v>0.3303915156183119</v>
+        <v>0.3301107639316767</v>
       </c>
       <c r="B2">
-        <v>0.4155611815184495</v>
+        <v>0.415611196524354</v>
       </c>
       <c r="C2">
-        <v>0.244408829000824</v>
+        <v>0.2445170188243952</v>
       </c>
       <c r="D2">
-        <v>0.3911161946280515</v>
+        <v>0.3903507817387732</v>
       </c>
       <c r="E2">
-        <v>0.2681141008127645</v>
+        <v>0.2677516320288421</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -565,64 +565,64 @@
         <v>7</v>
       </c>
       <c r="K2">
-        <v>2.312740609328183</v>
+        <v>2.310775347521737</v>
       </c>
       <c r="L2">
-        <v>2.908928270629147</v>
+        <v>2.909278375670477</v>
       </c>
       <c r="M2">
-        <v>1.710861803005768</v>
+        <v>1.711619131770767</v>
       </c>
       <c r="N2">
-        <v>2.737813362396361</v>
+        <v>2.732455472171412</v>
       </c>
       <c r="O2">
-        <v>1.876798705689352</v>
+        <v>1.874261424201894</v>
       </c>
       <c r="P2">
-        <v>67.17659999999999</v>
+        <v>67.27676</v>
       </c>
       <c r="Q2">
-        <v>106.5073944878793</v>
+        <v>106.5411467503276</v>
       </c>
       <c r="R2">
-        <v>44.49789621676571</v>
+        <v>44.49989721173976</v>
       </c>
       <c r="S2">
-        <v>88.63300549415897</v>
+        <v>88.79743446678775</v>
       </c>
       <c r="T2">
-        <v>48.77982430046851</v>
+        <v>48.77994374777913</v>
       </c>
       <c r="U2">
-        <v>0.2014987199683084</v>
+        <v>0.2011838440952395</v>
       </c>
       <c r="V2">
-        <v>0.2885144432155883</v>
+        <v>0.288744343116168</v>
       </c>
       <c r="W2">
-        <v>0.1017690302241985</v>
+        <v>0.1016229933579305</v>
       </c>
       <c r="X2">
-        <v>0.2664867119436721</v>
+        <v>0.2663293497599659</v>
       </c>
       <c r="Y2">
-        <v>0.1316731081390218</v>
+        <v>0.1313573526171028</v>
       </c>
       <c r="Z2">
-        <v>0.8470713742421291</v>
+        <v>0.8466649869005678</v>
       </c>
       <c r="AA2">
-        <v>0.9344948887654861</v>
+        <v>0.934499166025841</v>
       </c>
       <c r="AB2">
-        <v>0.6968563523484621</v>
+        <v>0.6967082179940818</v>
       </c>
       <c r="AC2">
-        <v>0.9185095051363288</v>
+        <v>0.9184631542161314</v>
       </c>
       <c r="AD2">
-        <v>0.75868958786262</v>
+        <v>0.7580821531328032</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -642,171 +642,171 @@
         <v>0.33</v>
       </c>
       <c r="F3">
-        <v>7.024935245759234</v>
+        <v>7.003892718045113</v>
       </c>
       <c r="G3">
-        <v>9.859631908908261</v>
+        <v>9.852527728921453</v>
       </c>
       <c r="H3">
-        <v>4.150774636123512</v>
+        <v>4.14986917649107</v>
       </c>
       <c r="I3">
-        <v>9.028688233946291</v>
+        <v>9.015014774712206</v>
       </c>
       <c r="J3">
-        <v>4.923159096089209</v>
+        <v>4.933294032909545</v>
       </c>
       <c r="K3">
-        <v>2.318228631100547</v>
+        <v>2.311284596954888</v>
       </c>
       <c r="L3">
-        <v>3.253678529939726</v>
+        <v>3.25133415054408</v>
       </c>
       <c r="M3">
-        <v>1.369755629920759</v>
+        <v>1.369456828242053</v>
       </c>
       <c r="N3">
-        <v>2.979467117202276</v>
+        <v>2.974954875655028</v>
       </c>
       <c r="O3">
-        <v>1.624642501709439</v>
+        <v>1.627987030860151</v>
       </c>
       <c r="P3">
-        <v>68.37820000000001</v>
+        <v>68.48976</v>
       </c>
       <c r="Q3">
-        <v>108.3838027869656</v>
+        <v>108.4255775396452</v>
       </c>
       <c r="R3">
-        <v>53.4982436037363</v>
+        <v>53.60549134344187</v>
       </c>
       <c r="S3">
-        <v>84.08354166617444</v>
+        <v>84.10651852181266</v>
       </c>
       <c r="T3">
-        <v>56.32714416437143</v>
+        <v>56.27728159932783</v>
       </c>
       <c r="U3">
-        <v>0.1979034910690606</v>
+        <v>0.1968441701163827</v>
       </c>
       <c r="V3">
-        <v>0.3287949793837069</v>
+        <v>0.3289385740419548</v>
       </c>
       <c r="W3">
-        <v>0.03851156950315863</v>
+        <v>0.03927090336922618</v>
       </c>
       <c r="X3">
-        <v>0.2984972884923551</v>
+        <v>0.297725408684395</v>
       </c>
       <c r="Y3">
-        <v>0.08782184339320732</v>
+        <v>0.0871737810077515</v>
       </c>
       <c r="Z3">
-        <v>0.8172454008275746</v>
+        <v>0.8160507378129342</v>
       </c>
       <c r="AA3">
-        <v>0.9600136329610626</v>
+        <v>0.9602856018097323</v>
       </c>
       <c r="AB3">
-        <v>0.4925588657973409</v>
+        <v>0.4935148305320233</v>
       </c>
       <c r="AC3">
-        <v>0.9354260330345722</v>
+        <v>0.934966440598985</v>
       </c>
       <c r="AD3">
-        <v>0.6519556231099357</v>
+        <v>0.6508775856717317</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4">
-        <v>0.3293522823166829</v>
+        <v>0.3297495105325244</v>
       </c>
       <c r="B4">
-        <v>0.4155961530794788</v>
+        <v>0.4154772426198125</v>
       </c>
       <c r="C4">
-        <v>0.244182442141616</v>
+        <v>0.2446516004416382</v>
       </c>
       <c r="D4">
-        <v>0.3901002350863928</v>
+        <v>0.3900524433988688</v>
       </c>
       <c r="E4">
-        <v>0.266901944353953</v>
+        <v>0.2675365285236319</v>
       </c>
       <c r="F4">
-        <v>7.027086858087968</v>
+        <v>7.002348170626321</v>
       </c>
       <c r="G4">
-        <v>9.856338948636029</v>
+        <v>9.852903518571656</v>
       </c>
       <c r="H4">
-        <v>4.159198094218549</v>
+        <v>4.14871823761041</v>
       </c>
       <c r="I4">
-        <v>9.012747253449909</v>
+        <v>9.018141007762488</v>
       </c>
       <c r="J4">
-        <v>4.956388995400859</v>
+        <v>4.929829151315143</v>
       </c>
       <c r="K4">
-        <v>2.315527830654438</v>
+        <v>2.308927180086172</v>
       </c>
       <c r="L4">
-        <v>3.718273575017595</v>
+        <v>3.730927800177077</v>
       </c>
       <c r="M4">
-        <v>1.195577956878288</v>
+        <v>1.194623138859719</v>
       </c>
       <c r="N4">
-        <v>3.056159313454872</v>
+        <v>3.033289829101107</v>
       </c>
       <c r="O4">
-        <v>1.573706760012888</v>
+        <v>1.577356635019926</v>
       </c>
       <c r="P4">
-        <v>70.3764</v>
+        <v>70.30318</v>
       </c>
       <c r="Q4">
-        <v>150.0563904143476</v>
+        <v>149.3804346691571</v>
       </c>
       <c r="R4">
-        <v>16.27499729652656</v>
+        <v>15.87156089226574</v>
       </c>
       <c r="S4">
-        <v>92.60402530921542</v>
+        <v>92.25890347765299</v>
       </c>
       <c r="T4">
-        <v>47.67964770352037</v>
+        <v>47.7981555424754</v>
       </c>
       <c r="U4">
-        <v>0.1947508460447537</v>
+        <v>0.1938043747894106</v>
       </c>
       <c r="V4">
-        <v>0.3762077471420343</v>
+        <v>0.3763101445064044</v>
       </c>
       <c r="W4">
-        <v>0.0121237535306269</v>
+        <v>0.01207763732108842</v>
       </c>
       <c r="X4">
-        <v>0.3084287185626183</v>
+        <v>0.306968598326241</v>
       </c>
       <c r="Y4">
-        <v>0.07651121620845926</v>
+        <v>0.07649327726257089</v>
       </c>
       <c r="Z4">
-        <v>0.789982313191457</v>
+        <v>0.7891922249792941</v>
       </c>
       <c r="AA4">
-        <v>1.006239437595983</v>
+        <v>1.005936367885767</v>
       </c>
       <c r="AB4">
-        <v>0.2756706660086207</v>
+        <v>0.2779109044429598</v>
       </c>
       <c r="AC4">
-        <v>0.9217094349228243</v>
+        <v>0.9210366299083371</v>
       </c>
       <c r="AD4">
-        <v>0.5798528289248102</v>
+        <v>0.5798096120396706</v>
       </c>
     </row>
   </sheetData>
